--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6638</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.35</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>80.35</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.89</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>48.04</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.78</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>217009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>招商核心价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>217010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>招商大盘蓝筹混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -818,25 +938,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>217009</t>
+          <t>001403</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商核心价值混合</t>
+          <t>招商国企改革主题混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>217010</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商大盘蓝筹混合</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001531</t>
+          <t>003234</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安益灵活配置混合</t>
+          <t>信诚至利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001628</t>
+          <t>002271</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商体育文化休闲股票</t>
+          <t>招商安弘灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002271</t>
+          <t>001531</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商安弘灵活配置混合</t>
+          <t>招商安益灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>77.58</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>76.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003234</t>
+          <t>003235</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合A</t>
+          <t>信诚至利灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>22.16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1098,26 +1318,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003235</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>22.16</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1326,7 +1327,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -1342,6 +1342,670 @@
       </c>
       <c r="H15" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000526</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰融丰外延增长灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009691</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009692</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2011,4 +2012,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4252</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3170,4 +3171,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3179,7 +3180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3190,17 +3191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3210,14 +3231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.92</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3226,14 +3269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.17</v>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3242,14 +3307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.72</v>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3258,13 +3345,1443 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4680,7 +4681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4691,17 +4692,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4711,14 +4732,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.42</v>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4727,14 +4770,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.92</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4743,14 +4808,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.17</v>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4759,14 +4846,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.72</v>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4775,13 +4884,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7689</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6939</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4106</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6257,7 +6258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6268,17 +6269,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6288,14 +6309,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.15</v>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6304,14 +6347,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.42</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6320,14 +6385,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.92</v>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6336,14 +6423,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.17</v>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6352,14 +6461,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.72</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -6368,13 +6499,1057 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>9.050000000000001</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>13.15</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>14.42</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>9.92</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>3.17</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>1.72</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -600,6 +617,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1757,7 +2780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3333,7 +4356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4833,7 +5856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5991,7 +7014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6655,7 +7678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7236,7 +8259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/603588-高能环境.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>5.78</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>9.050000000000001</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>13.15</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>14.42</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>9.92</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>3.17</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>1.72</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,356 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6638</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1022,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>15.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2714</t>
+          <t>1.4657</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009362</t>
+          <t>012001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合A</t>
+          <t>中泰星宇价值成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.77</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7302</t>
+          <t>0.7047</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012001</t>
+          <t>009362</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长混合A</t>
+          <t>招商丰盈积极配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>86.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6741</t>
+          <t>0.6786</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -797,22 +1136,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.90</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4133</t>
+          <t>0.3871</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,26 +1174,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>84.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3899</t>
+          <t>0.3639</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1202,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>217010</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商大盘蓝筹混合</t>
+          <t>中泰兴诚价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.95</t>
+          <t>92.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.3577</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1240,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011690</t>
+          <t>217010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商品质发现混合A</t>
+          <t>招商大盘蓝筹混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>86.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2899</t>
+          <t>0.3486</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1278,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>011690</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>招商品质发现混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.77</t>
+          <t>83.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2280</t>
+          <t>0.2707</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -987,26 +1326,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2139</t>
+          <t>0.2347</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1354,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013559</t>
+          <t>012367</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商均衡回报混合A</t>
+          <t>上投摩根安荣回报混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.32</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2013</t>
+          <t>0.2267</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1392,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009695</t>
+          <t>009363</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合A</t>
+          <t>招商丰盈积极配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>86.17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1685</t>
+          <t>0.2114</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1091,32 +1430,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012004</t>
+          <t>013559</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商价值成长混合C</t>
+          <t>招商均衡回报混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.90</t>
+          <t>88.42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1527</t>
+          <t>0.1882</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1129,36 +1468,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012002</t>
+          <t>004738</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长混合C</t>
+          <t>上投摩根安隆回报混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1457</t>
+          <t>0.1784</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1506,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004823</t>
+          <t>012366</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合A</t>
+          <t>上投摩根安荣回报混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.1779</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +1544,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004824</t>
+          <t>012002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合C</t>
+          <t>中泰星宇价值成长混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.1581</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +1582,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002249</t>
+          <t>009695</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商境远灵活配置混合</t>
+          <t>招商成长精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.27</t>
+          <t>88.86</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0973</t>
+          <t>0.1568</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +1620,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007733</t>
+          <t>012004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方智锐混合A</t>
+          <t>招商价值成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0944</t>
+          <t>0.1411</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1319,32 +1658,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009696</t>
+          <t>004823</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合C</t>
+          <t>上投摩根安裕回报混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0562</t>
+          <t>0.1125</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1357,36 +1696,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007734</t>
+          <t>004824</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>南方智锐混合C</t>
+          <t>上投摩根安裕回报混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1734,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>013560</t>
+          <t>002249</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招商均衡回报混合C</t>
+          <t>招商境远灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83.32</t>
+          <t>87.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0904</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +1772,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012673</t>
+          <t>004739</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华融融兴6个月定开混合A</t>
+          <t>上投摩根安隆回报混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>36.77</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +1810,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011691</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商品质发现混合C</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>92.29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +1848,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005429</t>
+          <t>009696</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合A</t>
+          <t>招商成长精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30.88</t>
+          <t>88.86</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1547,36 +1886,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>012674</t>
+          <t>013560</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华融融兴6个月定开混合C</t>
+          <t>招商均衡回报混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>36.77</t>
+          <t>88.42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1585,36 +1924,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005430</t>
+          <t>011691</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合C</t>
+          <t>招商品质发现混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30.88</t>
+          <t>83.24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1623,6 +1962,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2780,7 +4125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4356,7 +5701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5856,7 +7201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7014,7 +8359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7678,7 +9023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8257,326 +9602,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>020026</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰成长优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6638</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3302</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2851</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2101</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>